--- a/2021_Summer/jp.hong/doc/Approval to participate in the exhibition.210723.xlsx
+++ b/2021_Summer/jp.hong/doc/Approval to participate in the exhibition.210723.xlsx
@@ -68,19 +68,115 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="76">
   <x:si>
-    <x:t>010-4561-1438</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 2021년   07월    07일 </x:t>
-  </x:si>
-  <x:si>
     <x:t>홍준표</x:t>
   </x:si>
   <x:si>
     <x:t>4학년</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve"> 위와 같이 휴가계를 제출하오니 허락하여 주시기 바랍니다.</x:t>
+    <x:t>작성일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부서명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결재1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>직책</x:t>
+  </x:si>
+  <x:si>
+    <x:t>출근</x:t>
+  </x:si>
+  <x:si>
+    <x:t>담 당</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문서명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대 리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>담당자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>출장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부서장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>과 장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결재2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문제점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사 원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ㅇㅇㅇ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결재</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지각</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연락처</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결재수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교육</x:t>
+  </x:si>
+  <x:si>
+    <x:t>없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결재란</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결근</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결재3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결재4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>휴가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>직급</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오후</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조퇴</x:t>
   </x:si>
   <x:si>
     <x:t>회의 완료</x:t>
@@ -92,46 +188,34 @@
     <x:t>실시여부</x:t>
   </x:si>
   <x:si>
-    <x:t>김 ○ ○</x:t>
-  </x:si>
-  <x:si>
-    <x:t>근태관련사유</x:t>
+    <x:t>익일업무</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기  간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전시장소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전시회명</x:t>
   </x:si>
   <x:si>
     <x:t>근태상황</x:t>
   </x:si>
   <x:si>
-    <x:t>익일업무</x:t>
-  </x:si>
-  <x:si>
     <x:t>업무시간</x:t>
   </x:si>
   <x:si>
-    <x:t>세부추진</x:t>
+    <x:t>전시내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ㅇㅇㅇㅇ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대표이사</x:t>
   </x:si>
   <x:si>
     <x:t>금일요약</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컨텐츠팀</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전시회명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전시내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ㅇㅇㅇㅇ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기  간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대표이사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전시장소</x:t>
   </x:si>
   <x:si>
     <x:t>공고
@@ -141,161 +225,77 @@
     <x:t>소  속</x:t>
   </x:si>
   <x:si>
+    <x:t>대전대학교</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컨텐츠팀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김 ○ ○</x:t>
+  </x:si>
+  <x:si>
+    <x:t>근태관련사유</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세부추진</x:t>
+  </x:si>
+  <x:si>
     <x:t>성  명</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">  2021년 07월 23일 부터   ~    2021년  07월  23일    까지    ( 1 )  일 간</x:t>
+    <x:t>2021 Korea Smart Device &amp; SmallTronics Trade Show</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://www.coex.co.kr/blog/event_exhibition/28742</x:t>
+  </x:si>
+  <x:si>
+    <x:t>위와 같이 전시회 참가 신청서를 제출하오니 허락하여 주시기 바랍니다.</x:t>
   </x:si>
   <x:si>
     <x:t>개별 프로젝트 진행</x:t>
   </x:si>
   <x:si>
+    <x:t>진행 중(60%)</x:t>
+  </x:si>
+  <x:si>
     <x:t>일일업무일지(2)</x:t>
   </x:si>
   <x:si>
-    <x:t>진행 중(60%)</x:t>
-  </x:si>
-  <x:si>
     <x:t>프로젝트 회의 진행</x:t>
   </x:si>
   <x:si>
-    <x:t>2021 Korea Smart Device &amp; SmallTronics Trade Show</x:t>
-  </x:si>
-  <x:si>
-    <x:t>http://www.coex.co.kr/blog/event_exhibition/28742</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총 6명 중 1명 출장, 1명 지각</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대전대학교</x:t>
+    <x:t>코엑스 1층 B홀</x:t>
   </x:si>
   <x:si>
     <x:t>1인 가구를 대상으로하는 소형가전쇼
 소형가전, 모바일 액세서리, 컴퓨터 주변기기, 퍼스널 오디오, 웨어러블 디바이스. 스마트 헬스케어 디바이스, 스마트 오피스 디바이스, 스마트 홈 디바이스, 스마트 뷰티 디바이스, 스마트 카 디바이스, 게이밍 디바이스, 사물인터넷 디바이스, VR 디바이스, 인공지능 디바이스, 스마트 시큐리티 디바이스, 스마트 모빌리티, 스마트 센서, 스마트 페이, 스마트 토이, 스마트 웨어, 드론, 아이디어 상품, 판촉&amp;특판 상품 등</x:t>
   </x:si>
   <x:si>
+    <x:t>총 6명 중 1명 출장, 1명 지각</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">  2021년 07월 23일 부터   ~    2021년  07월  23일    까지    ( 1 )  일 간</x:t>
+  </x:si>
+  <x:si>
     <x:t>14:00 ~ 15:00</x:t>
   </x:si>
   <x:si>
+    <x:t>010-4561-1438</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve"> ( 인 )      </x:t>
   </x:si>
   <x:si>
+    <x:t>09:00 ~ 12:00</x:t>
+  </x:si>
+  <x:si>
     <x:t>주식회사 자이온프로세스</x:t>
   </x:si>
   <x:si>
-    <x:t>09:00 ~ 12:00</x:t>
+    <x:t xml:space="preserve"> 2021년   07월    07일 </x:t>
   </x:si>
   <x:si>
     <x:t>신          청          서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>직책</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작성일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부서명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결재1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출근</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결근</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결재3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문서명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결재4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결재수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결재란</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결재2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지각</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교육</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조퇴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오후</x:t>
-  </x:si>
-  <x:si>
-    <x:t>휴가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>직급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사 원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ㅇㅇㅇ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>담당자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>담 당</x:t>
-  </x:si>
-  <x:si>
-    <x:t>없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>과 장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대 리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연락처</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결재</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문제점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부서장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>코엑스 1층 B홀</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1393,6 +1393,45 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="31" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1647,45 +1686,6 @@
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -2102,7 +2102,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2508,113 +2508,113 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I1" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="M1" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="U1" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="X1" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:29">
       <x:c r="A2" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B2" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C2" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D2" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E2" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F2" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G2" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H2" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="I2" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J2" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="K2" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="L2" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="M2" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="N2" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="O2" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="P2" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="Q2" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="R2" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="S2" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="T2" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="U2" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="V2" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="W2" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="X2" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="Y2" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="Z2" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="AA2" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AB2" s="1" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="B2" s="1" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="C2" s="1" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="D2" s="1" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="E2" s="1" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="F2" s="1" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="G2" s="1" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="H2" s="1" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="I2" s="1" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="J2" s="1" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="K2" s="1" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="L2" s="1" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="M2" s="1" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="N2" s="1" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="O2" s="1" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="P2" s="1" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="Q2" s="1" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="R2" s="1" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="S2" s="1" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="T2" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="U2" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="V2" s="1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="W2" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="X2" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="Y2" s="1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="Z2" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="AA2" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="AB2" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
       <x:c r="AC2" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:26">
       <x:c r="A3" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B3" s="3">
         <x:v>40624.594317129631</x:v>
@@ -2623,25 +2623,25 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E3" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F3" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G3" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H3" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I3" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J3" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="K3" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="L3" s="1">
         <x:v>40624</x:v>
@@ -2656,30 +2656,30 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="T3" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="U3" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="V3" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="W3" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="X3" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="Y3" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="Z3" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:29">
       <x:c r="A4" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B4" s="3">
         <x:v>40624.594409722224</x:v>
@@ -2688,22 +2688,22 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F4" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G4" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H4" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I4" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="J4" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="K4" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="L4" s="1">
         <x:v>40624</x:v>
@@ -2718,33 +2718,33 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="T4" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="U4" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="V4" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="W4" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="X4" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="Y4" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="Z4" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="AC4" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:12">
       <x:c r="A5" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B5" s="3">
         <x:v>40725.632233796299</x:v>
@@ -2753,7 +2753,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="I5" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="L5" s="1">
         <x:v>40726</x:v>
@@ -2771,7 +2771,7 @@
   <x:dimension ref="A2:AB23"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C10" activeCellId="0" sqref="C10:AA10"/>
+      <x:selection activeCell="C9" activeCellId="0" sqref="C9:AA9"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="2.296875" defaultRowHeight="11.949999999999999"/>
@@ -2804,25 +2804,25 @@
       <x:c r="J2" s="10"/>
       <x:c r="L2" s="10"/>
       <x:c r="M2" s="10"/>
-      <x:c r="N2" s="44" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="O2" s="45"/>
-      <x:c r="P2" s="46"/>
+      <x:c r="N2" s="47" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="O2" s="48"/>
+      <x:c r="P2" s="49"/>
       <x:c r="Q2" s="30" t="s">
-        <x:v>66</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="R2" s="30"/>
       <x:c r="S2" s="30"/>
       <x:c r="T2" s="30"/>
       <x:c r="U2" s="30" t="s">
-        <x:v>74</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="V2" s="30"/>
       <x:c r="W2" s="30"/>
       <x:c r="X2" s="30"/>
       <x:c r="Y2" s="30" t="s">
-        <x:v>20</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="Z2" s="30"/>
       <x:c r="AA2" s="30"/>
@@ -2841,9 +2841,9 @@
       <x:c r="J3" s="6"/>
       <x:c r="L3" s="7"/>
       <x:c r="M3" s="6"/>
-      <x:c r="N3" s="47"/>
-      <x:c r="O3" s="48"/>
-      <x:c r="P3" s="49"/>
+      <x:c r="N3" s="50"/>
+      <x:c r="O3" s="51"/>
+      <x:c r="P3" s="52"/>
       <x:c r="Q3" s="31"/>
       <x:c r="R3" s="32"/>
       <x:c r="S3" s="32"/>
@@ -2870,9 +2870,9 @@
       <x:c r="J4" s="6"/>
       <x:c r="L4" s="7"/>
       <x:c r="M4" s="6"/>
-      <x:c r="N4" s="50"/>
-      <x:c r="O4" s="51"/>
-      <x:c r="P4" s="52"/>
+      <x:c r="N4" s="53"/>
+      <x:c r="O4" s="54"/>
+      <x:c r="P4" s="55"/>
       <x:c r="Q4" s="34"/>
       <x:c r="R4" s="35"/>
       <x:c r="S4" s="35"/>
@@ -2918,7 +2918,7 @@
     <x:row r="6" spans="1:27" ht="30.75" customHeight="1">
       <x:c r="A6" s="9"/>
       <x:c r="B6" s="24" t="s">
-        <x:v>39</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C6" s="25"/>
       <x:c r="D6" s="25"/>
@@ -2949,10 +2949,10 @@
     <x:row r="7" spans="1:28" ht="39" customHeight="1">
       <x:c r="A7" s="9"/>
       <x:c r="B7" s="11" t="s">
-        <x:v>23</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C7" s="27" t="s">
-        <x:v>33</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D7" s="28"/>
       <x:c r="E7" s="28"/>
@@ -2966,13 +2966,13 @@
       <x:c r="M7" s="28"/>
       <x:c r="N7" s="28"/>
       <x:c r="O7" s="27" t="s">
-        <x:v>63</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="P7" s="28"/>
       <x:c r="Q7" s="28"/>
       <x:c r="R7" s="28"/>
       <x:c r="S7" s="27" t="s">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T7" s="28"/>
       <x:c r="U7" s="28"/>
@@ -2987,10 +2987,10 @@
     <x:row r="8" spans="1:27" ht="39" customHeight="1">
       <x:c r="A8" s="9"/>
       <x:c r="B8" s="12" t="s">
-        <x:v>24</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C8" s="27" t="s">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D8" s="28"/>
       <x:c r="E8" s="28"/>
@@ -3004,13 +3004,13 @@
       <x:c r="M8" s="28"/>
       <x:c r="N8" s="37"/>
       <x:c r="O8" s="27" t="s">
-        <x:v>71</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="P8" s="28"/>
       <x:c r="Q8" s="28"/>
       <x:c r="R8" s="37"/>
       <x:c r="S8" s="27" t="s">
-        <x:v>0</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="T8" s="28"/>
       <x:c r="U8" s="28"/>
@@ -3024,10 +3024,10 @@
     <x:row r="9" spans="1:28" ht="39" customHeight="1">
       <x:c r="A9" s="9"/>
       <x:c r="B9" s="13" t="s">
-        <x:v>16</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C9" s="27" t="s">
-        <x:v>30</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D9" s="27"/>
       <x:c r="E9" s="27"/>
@@ -3052,16 +3052,16 @@
       <x:c r="X9" s="27"/>
       <x:c r="Y9" s="27"/>
       <x:c r="Z9" s="27"/>
-      <x:c r="AA9" s="60"/>
+      <x:c r="AA9" s="63"/>
       <x:c r="AB9" s="19"/>
     </x:row>
     <x:row r="10" spans="1:27" ht="89.400000000000006" customHeight="1">
       <x:c r="A10" s="9"/>
       <x:c r="B10" s="12" t="s">
-        <x:v>17</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C10" s="64" t="s">
-        <x:v>34</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D10" s="28"/>
       <x:c r="E10" s="28"/>
@@ -3091,10 +3091,10 @@
     <x:row r="11" spans="1:27" ht="39" customHeight="1">
       <x:c r="A11" s="9"/>
       <x:c r="B11" s="14" t="s">
-        <x:v>21</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C11" s="27" t="s">
-        <x:v>75</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D11" s="28"/>
       <x:c r="E11" s="28"/>
@@ -3124,10 +3124,10 @@
     <x:row r="12" spans="1:27" ht="39" customHeight="1">
       <x:c r="A12" s="9"/>
       <x:c r="B12" s="13" t="s">
-        <x:v>19</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C12" s="38" t="s">
-        <x:v>25</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D12" s="39"/>
       <x:c r="E12" s="39"/>
@@ -3157,244 +3157,244 @@
     <x:row r="13" spans="1:27" ht="39" customHeight="1">
       <x:c r="A13" s="9"/>
       <x:c r="B13" s="20" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C13" s="61" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="D13" s="62"/>
-      <x:c r="E13" s="62"/>
-      <x:c r="F13" s="62"/>
-      <x:c r="G13" s="62"/>
-      <x:c r="H13" s="62"/>
-      <x:c r="I13" s="62"/>
-      <x:c r="J13" s="62"/>
-      <x:c r="K13" s="62"/>
-      <x:c r="L13" s="62"/>
-      <x:c r="M13" s="62"/>
-      <x:c r="N13" s="62"/>
-      <x:c r="O13" s="62"/>
-      <x:c r="P13" s="62"/>
-      <x:c r="Q13" s="62"/>
-      <x:c r="R13" s="62"/>
-      <x:c r="S13" s="62"/>
-      <x:c r="T13" s="62"/>
-      <x:c r="U13" s="62"/>
-      <x:c r="V13" s="62"/>
-      <x:c r="W13" s="62"/>
-      <x:c r="X13" s="62"/>
-      <x:c r="Y13" s="62"/>
-      <x:c r="Z13" s="62"/>
-      <x:c r="AA13" s="63"/>
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C13" s="41" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D13" s="42"/>
+      <x:c r="E13" s="42"/>
+      <x:c r="F13" s="42"/>
+      <x:c r="G13" s="42"/>
+      <x:c r="H13" s="42"/>
+      <x:c r="I13" s="42"/>
+      <x:c r="J13" s="42"/>
+      <x:c r="K13" s="42"/>
+      <x:c r="L13" s="42"/>
+      <x:c r="M13" s="42"/>
+      <x:c r="N13" s="42"/>
+      <x:c r="O13" s="42"/>
+      <x:c r="P13" s="42"/>
+      <x:c r="Q13" s="42"/>
+      <x:c r="R13" s="42"/>
+      <x:c r="S13" s="42"/>
+      <x:c r="T13" s="42"/>
+      <x:c r="U13" s="42"/>
+      <x:c r="V13" s="42"/>
+      <x:c r="W13" s="42"/>
+      <x:c r="X13" s="42"/>
+      <x:c r="Y13" s="42"/>
+      <x:c r="Z13" s="42"/>
+      <x:c r="AA13" s="43"/>
     </x:row>
     <x:row r="14" spans="1:27" ht="27.75" customHeight="1">
       <x:c r="A14" s="9"/>
-      <x:c r="B14" s="56" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C14" s="57"/>
-      <x:c r="D14" s="57"/>
-      <x:c r="E14" s="57"/>
-      <x:c r="F14" s="57"/>
-      <x:c r="G14" s="57"/>
-      <x:c r="H14" s="57"/>
-      <x:c r="I14" s="57"/>
-      <x:c r="J14" s="57"/>
-      <x:c r="K14" s="57"/>
-      <x:c r="L14" s="57"/>
-      <x:c r="M14" s="57"/>
-      <x:c r="N14" s="57"/>
-      <x:c r="O14" s="57"/>
-      <x:c r="P14" s="57"/>
-      <x:c r="Q14" s="57"/>
-      <x:c r="R14" s="57"/>
-      <x:c r="S14" s="57"/>
-      <x:c r="T14" s="57"/>
-      <x:c r="U14" s="57"/>
-      <x:c r="V14" s="57"/>
-      <x:c r="W14" s="57"/>
-      <x:c r="X14" s="57"/>
-      <x:c r="Y14" s="57"/>
-      <x:c r="Z14" s="57"/>
-      <x:c r="AA14" s="58"/>
+      <x:c r="B14" s="59" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C14" s="60"/>
+      <x:c r="D14" s="60"/>
+      <x:c r="E14" s="60"/>
+      <x:c r="F14" s="60"/>
+      <x:c r="G14" s="60"/>
+      <x:c r="H14" s="60"/>
+      <x:c r="I14" s="60"/>
+      <x:c r="J14" s="60"/>
+      <x:c r="K14" s="60"/>
+      <x:c r="L14" s="60"/>
+      <x:c r="M14" s="60"/>
+      <x:c r="N14" s="60"/>
+      <x:c r="O14" s="60"/>
+      <x:c r="P14" s="60"/>
+      <x:c r="Q14" s="60"/>
+      <x:c r="R14" s="60"/>
+      <x:c r="S14" s="60"/>
+      <x:c r="T14" s="60"/>
+      <x:c r="U14" s="60"/>
+      <x:c r="V14" s="60"/>
+      <x:c r="W14" s="60"/>
+      <x:c r="X14" s="60"/>
+      <x:c r="Y14" s="60"/>
+      <x:c r="Z14" s="60"/>
+      <x:c r="AA14" s="61"/>
     </x:row>
     <x:row r="15" spans="1:27" ht="27.75" customHeight="1">
       <x:c r="A15" s="9"/>
-      <x:c r="B15" s="59"/>
-      <x:c r="C15" s="42"/>
-      <x:c r="D15" s="42"/>
-      <x:c r="E15" s="42"/>
-      <x:c r="F15" s="42"/>
-      <x:c r="G15" s="42"/>
-      <x:c r="H15" s="42"/>
-      <x:c r="I15" s="42"/>
-      <x:c r="J15" s="42"/>
-      <x:c r="K15" s="42"/>
-      <x:c r="L15" s="42"/>
-      <x:c r="M15" s="42"/>
-      <x:c r="N15" s="42"/>
-      <x:c r="O15" s="42"/>
-      <x:c r="P15" s="42"/>
-      <x:c r="Q15" s="42"/>
-      <x:c r="R15" s="42"/>
-      <x:c r="S15" s="42"/>
-      <x:c r="T15" s="42"/>
-      <x:c r="U15" s="42"/>
-      <x:c r="V15" s="42"/>
-      <x:c r="W15" s="42"/>
-      <x:c r="X15" s="42"/>
-      <x:c r="Y15" s="42"/>
-      <x:c r="Z15" s="42"/>
-      <x:c r="AA15" s="43"/>
+      <x:c r="B15" s="62"/>
+      <x:c r="C15" s="45"/>
+      <x:c r="D15" s="45"/>
+      <x:c r="E15" s="45"/>
+      <x:c r="F15" s="45"/>
+      <x:c r="G15" s="45"/>
+      <x:c r="H15" s="45"/>
+      <x:c r="I15" s="45"/>
+      <x:c r="J15" s="45"/>
+      <x:c r="K15" s="45"/>
+      <x:c r="L15" s="45"/>
+      <x:c r="M15" s="45"/>
+      <x:c r="N15" s="45"/>
+      <x:c r="O15" s="45"/>
+      <x:c r="P15" s="45"/>
+      <x:c r="Q15" s="45"/>
+      <x:c r="R15" s="45"/>
+      <x:c r="S15" s="45"/>
+      <x:c r="T15" s="45"/>
+      <x:c r="U15" s="45"/>
+      <x:c r="V15" s="45"/>
+      <x:c r="W15" s="45"/>
+      <x:c r="X15" s="45"/>
+      <x:c r="Y15" s="45"/>
+      <x:c r="Z15" s="45"/>
+      <x:c r="AA15" s="46"/>
     </x:row>
     <x:row r="16" spans="1:27" ht="27.75" customHeight="1">
       <x:c r="A16" s="9"/>
-      <x:c r="B16" s="59"/>
-      <x:c r="C16" s="42"/>
-      <x:c r="D16" s="42"/>
-      <x:c r="E16" s="42"/>
-      <x:c r="F16" s="42"/>
-      <x:c r="G16" s="42"/>
-      <x:c r="H16" s="42"/>
-      <x:c r="I16" s="42"/>
-      <x:c r="J16" s="42"/>
-      <x:c r="K16" s="42"/>
-      <x:c r="L16" s="42"/>
-      <x:c r="M16" s="42"/>
-      <x:c r="N16" s="42"/>
-      <x:c r="O16" s="42"/>
-      <x:c r="P16" s="42"/>
-      <x:c r="Q16" s="42"/>
-      <x:c r="R16" s="42"/>
-      <x:c r="S16" s="42"/>
-      <x:c r="T16" s="42"/>
-      <x:c r="U16" s="42"/>
-      <x:c r="V16" s="42"/>
-      <x:c r="W16" s="42"/>
-      <x:c r="X16" s="42"/>
-      <x:c r="Y16" s="42"/>
-      <x:c r="Z16" s="42"/>
-      <x:c r="AA16" s="43"/>
+      <x:c r="B16" s="62"/>
+      <x:c r="C16" s="45"/>
+      <x:c r="D16" s="45"/>
+      <x:c r="E16" s="45"/>
+      <x:c r="F16" s="45"/>
+      <x:c r="G16" s="45"/>
+      <x:c r="H16" s="45"/>
+      <x:c r="I16" s="45"/>
+      <x:c r="J16" s="45"/>
+      <x:c r="K16" s="45"/>
+      <x:c r="L16" s="45"/>
+      <x:c r="M16" s="45"/>
+      <x:c r="N16" s="45"/>
+      <x:c r="O16" s="45"/>
+      <x:c r="P16" s="45"/>
+      <x:c r="Q16" s="45"/>
+      <x:c r="R16" s="45"/>
+      <x:c r="S16" s="45"/>
+      <x:c r="T16" s="45"/>
+      <x:c r="U16" s="45"/>
+      <x:c r="V16" s="45"/>
+      <x:c r="W16" s="45"/>
+      <x:c r="X16" s="45"/>
+      <x:c r="Y16" s="45"/>
+      <x:c r="Z16" s="45"/>
+      <x:c r="AA16" s="46"/>
     </x:row>
     <x:row r="17" spans="1:27" ht="27.75" customHeight="1">
       <x:c r="A17" s="9"/>
-      <x:c r="B17" s="59"/>
-      <x:c r="C17" s="42"/>
-      <x:c r="D17" s="42"/>
-      <x:c r="E17" s="42"/>
-      <x:c r="F17" s="42"/>
-      <x:c r="G17" s="42"/>
-      <x:c r="H17" s="42"/>
-      <x:c r="I17" s="42"/>
-      <x:c r="J17" s="42"/>
-      <x:c r="K17" s="42"/>
-      <x:c r="L17" s="42"/>
-      <x:c r="M17" s="42"/>
-      <x:c r="N17" s="42"/>
-      <x:c r="O17" s="42"/>
-      <x:c r="P17" s="42"/>
-      <x:c r="Q17" s="42"/>
-      <x:c r="R17" s="42"/>
-      <x:c r="S17" s="42"/>
-      <x:c r="T17" s="42"/>
-      <x:c r="U17" s="42"/>
-      <x:c r="V17" s="42"/>
-      <x:c r="W17" s="42"/>
-      <x:c r="X17" s="42"/>
-      <x:c r="Y17" s="42"/>
-      <x:c r="Z17" s="42"/>
-      <x:c r="AA17" s="43"/>
+      <x:c r="B17" s="62"/>
+      <x:c r="C17" s="45"/>
+      <x:c r="D17" s="45"/>
+      <x:c r="E17" s="45"/>
+      <x:c r="F17" s="45"/>
+      <x:c r="G17" s="45"/>
+      <x:c r="H17" s="45"/>
+      <x:c r="I17" s="45"/>
+      <x:c r="J17" s="45"/>
+      <x:c r="K17" s="45"/>
+      <x:c r="L17" s="45"/>
+      <x:c r="M17" s="45"/>
+      <x:c r="N17" s="45"/>
+      <x:c r="O17" s="45"/>
+      <x:c r="P17" s="45"/>
+      <x:c r="Q17" s="45"/>
+      <x:c r="R17" s="45"/>
+      <x:c r="S17" s="45"/>
+      <x:c r="T17" s="45"/>
+      <x:c r="U17" s="45"/>
+      <x:c r="V17" s="45"/>
+      <x:c r="W17" s="45"/>
+      <x:c r="X17" s="45"/>
+      <x:c r="Y17" s="45"/>
+      <x:c r="Z17" s="45"/>
+      <x:c r="AA17" s="46"/>
     </x:row>
     <x:row r="18" spans="1:27" ht="27.75" customHeight="1">
       <x:c r="A18" s="9"/>
-      <x:c r="B18" s="59"/>
-      <x:c r="C18" s="42"/>
-      <x:c r="D18" s="42"/>
-      <x:c r="E18" s="42"/>
-      <x:c r="F18" s="42"/>
-      <x:c r="G18" s="42"/>
-      <x:c r="H18" s="42"/>
-      <x:c r="I18" s="42"/>
-      <x:c r="J18" s="42"/>
-      <x:c r="K18" s="42"/>
-      <x:c r="L18" s="42"/>
-      <x:c r="M18" s="42"/>
-      <x:c r="N18" s="42"/>
-      <x:c r="O18" s="42"/>
-      <x:c r="P18" s="42"/>
-      <x:c r="Q18" s="42"/>
-      <x:c r="R18" s="42"/>
-      <x:c r="S18" s="42"/>
-      <x:c r="T18" s="42"/>
-      <x:c r="U18" s="42"/>
-      <x:c r="V18" s="42"/>
-      <x:c r="W18" s="42"/>
-      <x:c r="X18" s="42"/>
-      <x:c r="Y18" s="42"/>
-      <x:c r="Z18" s="42"/>
-      <x:c r="AA18" s="43"/>
+      <x:c r="B18" s="62"/>
+      <x:c r="C18" s="45"/>
+      <x:c r="D18" s="45"/>
+      <x:c r="E18" s="45"/>
+      <x:c r="F18" s="45"/>
+      <x:c r="G18" s="45"/>
+      <x:c r="H18" s="45"/>
+      <x:c r="I18" s="45"/>
+      <x:c r="J18" s="45"/>
+      <x:c r="K18" s="45"/>
+      <x:c r="L18" s="45"/>
+      <x:c r="M18" s="45"/>
+      <x:c r="N18" s="45"/>
+      <x:c r="O18" s="45"/>
+      <x:c r="P18" s="45"/>
+      <x:c r="Q18" s="45"/>
+      <x:c r="R18" s="45"/>
+      <x:c r="S18" s="45"/>
+      <x:c r="T18" s="45"/>
+      <x:c r="U18" s="45"/>
+      <x:c r="V18" s="45"/>
+      <x:c r="W18" s="45"/>
+      <x:c r="X18" s="45"/>
+      <x:c r="Y18" s="45"/>
+      <x:c r="Z18" s="45"/>
+      <x:c r="AA18" s="46"/>
     </x:row>
     <x:row r="19" spans="1:27" ht="27.75" customHeight="1">
       <x:c r="A19" s="9"/>
-      <x:c r="B19" s="41" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C19" s="42"/>
-      <x:c r="D19" s="42"/>
-      <x:c r="E19" s="42"/>
-      <x:c r="F19" s="42"/>
-      <x:c r="G19" s="42"/>
-      <x:c r="H19" s="42"/>
-      <x:c r="I19" s="42"/>
-      <x:c r="J19" s="42"/>
-      <x:c r="K19" s="42"/>
-      <x:c r="L19" s="42"/>
-      <x:c r="M19" s="42"/>
-      <x:c r="N19" s="42"/>
-      <x:c r="O19" s="42"/>
-      <x:c r="P19" s="42"/>
-      <x:c r="Q19" s="42"/>
-      <x:c r="R19" s="42"/>
-      <x:c r="S19" s="42"/>
-      <x:c r="T19" s="42"/>
-      <x:c r="U19" s="42"/>
-      <x:c r="V19" s="42"/>
-      <x:c r="W19" s="42"/>
-      <x:c r="X19" s="42"/>
-      <x:c r="Y19" s="42"/>
-      <x:c r="Z19" s="42"/>
-      <x:c r="AA19" s="43"/>
+      <x:c r="B19" s="44" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C19" s="45"/>
+      <x:c r="D19" s="45"/>
+      <x:c r="E19" s="45"/>
+      <x:c r="F19" s="45"/>
+      <x:c r="G19" s="45"/>
+      <x:c r="H19" s="45"/>
+      <x:c r="I19" s="45"/>
+      <x:c r="J19" s="45"/>
+      <x:c r="K19" s="45"/>
+      <x:c r="L19" s="45"/>
+      <x:c r="M19" s="45"/>
+      <x:c r="N19" s="45"/>
+      <x:c r="O19" s="45"/>
+      <x:c r="P19" s="45"/>
+      <x:c r="Q19" s="45"/>
+      <x:c r="R19" s="45"/>
+      <x:c r="S19" s="45"/>
+      <x:c r="T19" s="45"/>
+      <x:c r="U19" s="45"/>
+      <x:c r="V19" s="45"/>
+      <x:c r="W19" s="45"/>
+      <x:c r="X19" s="45"/>
+      <x:c r="Y19" s="45"/>
+      <x:c r="Z19" s="45"/>
+      <x:c r="AA19" s="46"/>
     </x:row>
     <x:row r="20" spans="1:27" ht="27.75" customHeight="1">
       <x:c r="A20" s="9"/>
-      <x:c r="B20" s="53" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C20" s="54"/>
-      <x:c r="D20" s="54"/>
-      <x:c r="E20" s="54"/>
-      <x:c r="F20" s="54"/>
-      <x:c r="G20" s="54"/>
-      <x:c r="H20" s="54"/>
-      <x:c r="I20" s="54"/>
-      <x:c r="J20" s="54"/>
-      <x:c r="K20" s="54"/>
-      <x:c r="L20" s="54"/>
-      <x:c r="M20" s="54"/>
-      <x:c r="N20" s="54"/>
-      <x:c r="O20" s="54"/>
-      <x:c r="P20" s="54"/>
-      <x:c r="Q20" s="54"/>
-      <x:c r="R20" s="54"/>
-      <x:c r="S20" s="54"/>
-      <x:c r="T20" s="54"/>
-      <x:c r="U20" s="54"/>
-      <x:c r="V20" s="54"/>
-      <x:c r="W20" s="54"/>
-      <x:c r="X20" s="54"/>
-      <x:c r="Y20" s="54"/>
-      <x:c r="Z20" s="54"/>
-      <x:c r="AA20" s="55"/>
+      <x:c r="B20" s="56" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C20" s="57"/>
+      <x:c r="D20" s="57"/>
+      <x:c r="E20" s="57"/>
+      <x:c r="F20" s="57"/>
+      <x:c r="G20" s="57"/>
+      <x:c r="H20" s="57"/>
+      <x:c r="I20" s="57"/>
+      <x:c r="J20" s="57"/>
+      <x:c r="K20" s="57"/>
+      <x:c r="L20" s="57"/>
+      <x:c r="M20" s="57"/>
+      <x:c r="N20" s="57"/>
+      <x:c r="O20" s="57"/>
+      <x:c r="P20" s="57"/>
+      <x:c r="Q20" s="57"/>
+      <x:c r="R20" s="57"/>
+      <x:c r="S20" s="57"/>
+      <x:c r="T20" s="57"/>
+      <x:c r="U20" s="57"/>
+      <x:c r="V20" s="57"/>
+      <x:c r="W20" s="57"/>
+      <x:c r="X20" s="57"/>
+      <x:c r="Y20" s="57"/>
+      <x:c r="Z20" s="57"/>
+      <x:c r="AA20" s="58"/>
     </x:row>
     <x:row r="21" spans="1:27" ht="27.75" customHeight="1">
       <x:c r="A21" s="9"/>
@@ -3473,7 +3473,7 @@
       <x:c r="P23" s="18"/>
       <x:c r="Q23" s="18"/>
       <x:c r="R23" s="21" t="s">
-        <x:v>37</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="S23" s="21"/>
       <x:c r="T23" s="21"/>
@@ -3515,7 +3515,7 @@
   <x:hyperlinks>
     <x:hyperlink ref="C13:AA13" r:id="rId1"/>
   </x:hyperlinks>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <x:drawing r:id="rId2"/>
 </x:worksheet>
